--- a/biology/Biochimie/Gene-scan_Analysis/Gene-scan_Analysis.xlsx
+++ b/biology/Biochimie/Gene-scan_Analysis/Gene-scan_Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gene-scan Analysis est le logiciel chargé d'analyser les données brutes de gene scan sur le séquenceur de gène Abi prism 310.
 Le logiciel est en anglais et fonctionne sur Apple Power Mac G4 (AGP).
